--- a/_design/menu-worksheet.xlsx
+++ b/_design/menu-worksheet.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="343">
   <si>
     <t>id</t>
   </si>
@@ -1095,13 +1095,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1418,8 +1419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0C964A2-0BDF-4106-B25D-7854BD79D8EF}">
   <dimension ref="A1:I136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I136" sqref="I2:I136"/>
+    <sheetView tabSelected="1" topLeftCell="B94" workbookViewId="0">
+      <selection activeCell="M131" sqref="M131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2047,8 +2048,8 @@
       <c r="C23" t="s">
         <v>64</v>
       </c>
-      <c r="D23" t="s">
-        <v>65</v>
+      <c r="D23">
+        <v>999</v>
       </c>
       <c r="E23" t="s">
         <v>62</v>
@@ -2064,7 +2065,7 @@
       </c>
       <c r="I23" t="str">
         <f t="shared" si="0"/>
-        <v>{"id": 22, "name_en": "Five-star spicy crab with chili peppers", "name_ch": "香辣蟹", "price": null, "type": "szechuan", "typename_en": "Szechuan Heaven", "typename_ch": "特別推薦川菜", "spicy": true}</v>
+        <v>{"id": 22, "name_en": "Five-star spicy crab with chili peppers", "name_ch": "香辣蟹", "price": 999, "type": "szechuan", "typename_en": "Szechuan Heaven", "typename_ch": "特別推薦川菜", "spicy": true}</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -4288,7 +4289,7 @@
       <c r="C104" t="s">
         <v>279</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D104" s="4" t="s">
         <v>65</v>
       </c>
       <c r="E104" t="s">
@@ -4315,7 +4316,7 @@
       <c r="C105" t="s">
         <v>281</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D105" s="4" t="s">
         <v>65</v>
       </c>
       <c r="E105" t="s">
@@ -4342,7 +4343,7 @@
       <c r="C106" t="s">
         <v>282</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D106" s="4" t="s">
         <v>65</v>
       </c>
       <c r="E106" t="s">
@@ -4369,7 +4370,7 @@
       <c r="C107" t="s">
         <v>284</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D107" s="4" t="s">
         <v>65</v>
       </c>
       <c r="E107" t="s">
@@ -4396,7 +4397,7 @@
       <c r="C108" t="s">
         <v>286</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D108" s="4" t="s">
         <v>65</v>
       </c>
       <c r="E108" t="s">
@@ -4423,7 +4424,7 @@
       <c r="C109" t="s">
         <v>287</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D109" s="4" t="s">
         <v>65</v>
       </c>
       <c r="E109" t="s">
@@ -4450,7 +4451,7 @@
       <c r="C110" t="s">
         <v>247</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D110" s="4" t="s">
         <v>65</v>
       </c>
       <c r="E110" t="s">
@@ -4477,7 +4478,7 @@
       <c r="C111" t="s">
         <v>249</v>
       </c>
-      <c r="D111" t="s">
+      <c r="D111" s="4" t="s">
         <v>65</v>
       </c>
       <c r="E111" t="s">
@@ -4504,7 +4505,7 @@
       <c r="C112" t="s">
         <v>251</v>
       </c>
-      <c r="D112" t="s">
+      <c r="D112" s="4" t="s">
         <v>65</v>
       </c>
       <c r="E112" t="s">
@@ -4531,7 +4532,7 @@
       <c r="C113" t="s">
         <v>254</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D113" s="4" t="s">
         <v>65</v>
       </c>
       <c r="E113" t="s">
@@ -4561,7 +4562,7 @@
       <c r="C114" t="s">
         <v>256</v>
       </c>
-      <c r="D114" t="s">
+      <c r="D114" s="4" t="s">
         <v>65</v>
       </c>
       <c r="E114" t="s">
@@ -4588,7 +4589,7 @@
       <c r="C115" t="s">
         <v>257</v>
       </c>
-      <c r="D115" t="s">
+      <c r="D115" s="4" t="s">
         <v>65</v>
       </c>
       <c r="E115" t="s">
@@ -4615,7 +4616,7 @@
       <c r="C116" t="s">
         <v>161</v>
       </c>
-      <c r="D116" t="s">
+      <c r="D116" s="4" t="s">
         <v>65</v>
       </c>
       <c r="E116" t="s">
@@ -4642,7 +4643,7 @@
       <c r="C117" t="s">
         <v>259</v>
       </c>
-      <c r="D117" t="s">
+      <c r="D117" s="4" t="s">
         <v>65</v>
       </c>
       <c r="E117" t="s">
@@ -4669,7 +4670,7 @@
       <c r="C118" t="s">
         <v>261</v>
       </c>
-      <c r="D118" t="s">
+      <c r="D118" s="4" t="s">
         <v>65</v>
       </c>
       <c r="E118" t="s">
@@ -4696,7 +4697,7 @@
       <c r="C119" t="s">
         <v>263</v>
       </c>
-      <c r="D119" t="s">
+      <c r="D119" s="4" t="s">
         <v>65</v>
       </c>
       <c r="E119" t="s">
@@ -4723,7 +4724,7 @@
       <c r="C120" t="s">
         <v>265</v>
       </c>
-      <c r="D120" t="s">
+      <c r="D120" s="4" t="s">
         <v>65</v>
       </c>
       <c r="E120" t="s">
@@ -4750,7 +4751,7 @@
       <c r="C121" t="s">
         <v>101</v>
       </c>
-      <c r="D121" t="s">
+      <c r="D121" s="4" t="s">
         <v>65</v>
       </c>
       <c r="E121" t="s">
@@ -4777,7 +4778,7 @@
       <c r="C122" t="s">
         <v>169</v>
       </c>
-      <c r="D122" t="s">
+      <c r="D122" s="4" t="s">
         <v>65</v>
       </c>
       <c r="E122" t="s">
@@ -4804,7 +4805,7 @@
       <c r="C123" t="s">
         <v>267</v>
       </c>
-      <c r="D123" t="s">
+      <c r="D123" s="4" t="s">
         <v>65</v>
       </c>
       <c r="E123" t="s">
@@ -4831,7 +4832,7 @@
       <c r="C124" t="s">
         <v>269</v>
       </c>
-      <c r="D124" t="s">
+      <c r="D124" s="4" t="s">
         <v>65</v>
       </c>
       <c r="E124" t="s">
@@ -4858,7 +4859,7 @@
       <c r="C125" t="s">
         <v>288</v>
       </c>
-      <c r="D125" t="s">
+      <c r="D125" s="4" t="s">
         <v>65</v>
       </c>
       <c r="E125" t="s">
@@ -4885,7 +4886,7 @@
       <c r="C126" t="s">
         <v>161</v>
       </c>
-      <c r="D126" t="s">
+      <c r="D126" s="4" t="s">
         <v>65</v>
       </c>
       <c r="E126" t="s">
@@ -4912,7 +4913,7 @@
       <c r="C127" t="s">
         <v>57</v>
       </c>
-      <c r="D127" t="s">
+      <c r="D127" s="4" t="s">
         <v>65</v>
       </c>
       <c r="E127" t="s">
@@ -4939,7 +4940,7 @@
       <c r="C128" t="s">
         <v>88</v>
       </c>
-      <c r="D128" t="s">
+      <c r="D128" s="4" t="s">
         <v>65</v>
       </c>
       <c r="E128" t="s">
@@ -4966,7 +4967,7 @@
       <c r="C129" t="s">
         <v>261</v>
       </c>
-      <c r="D129" t="s">
+      <c r="D129" s="4" t="s">
         <v>65</v>
       </c>
       <c r="E129" t="s">
@@ -4993,7 +4994,7 @@
       <c r="C130" t="s">
         <v>272</v>
       </c>
-      <c r="D130" t="s">
+      <c r="D130" s="4" t="s">
         <v>65</v>
       </c>
       <c r="E130" t="s">
@@ -5023,7 +5024,7 @@
       <c r="C131" t="s">
         <v>265</v>
       </c>
-      <c r="D131" t="s">
+      <c r="D131" s="4" t="s">
         <v>65</v>
       </c>
       <c r="E131" t="s">
@@ -5050,7 +5051,7 @@
       <c r="C132" t="s">
         <v>99</v>
       </c>
-      <c r="D132" t="s">
+      <c r="D132" s="4" t="s">
         <v>65</v>
       </c>
       <c r="E132" t="s">
@@ -5077,7 +5078,7 @@
       <c r="C133" t="s">
         <v>136</v>
       </c>
-      <c r="D133" t="s">
+      <c r="D133" s="4" t="s">
         <v>65</v>
       </c>
       <c r="E133" t="s">
@@ -5104,7 +5105,7 @@
       <c r="C134" t="s">
         <v>274</v>
       </c>
-      <c r="D134" t="s">
+      <c r="D134" s="4" t="s">
         <v>65</v>
       </c>
       <c r="E134" t="s">
@@ -5131,7 +5132,7 @@
       <c r="C135" t="s">
         <v>276</v>
       </c>
-      <c r="D135" t="s">
+      <c r="D135" s="4" t="s">
         <v>65</v>
       </c>
       <c r="E135" t="s">
@@ -5158,7 +5159,7 @@
       <c r="C136" t="s">
         <v>288</v>
       </c>
-      <c r="D136" t="s">
+      <c r="D136" s="4" t="s">
         <v>65</v>
       </c>
       <c r="E136" t="s">
